--- a/5.Other/CK/Chiết-Khấu-tháng-05-2025.xlsx
+++ b/5.Other/CK/Chiết-Khấu-tháng-05-2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E3BB64-D986-4FBB-921B-E1C611A444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9196CA-791B-490A-9317-F1F0F716A730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bang Tinh CK" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Bang Tinh CK'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Phieu Tinh CK'!$A$1:$H$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Tồn San Xuat'!$A$1:$H$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Tồn San Xuat'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>Mã Sản Phẩm</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Trần Văn Hậu</t>
   </si>
   <si>
-    <t>Lô 1-2024</t>
-  </si>
-  <si>
     <t>TG102LE-4G URG</t>
   </si>
   <si>
@@ -216,30 +213,18 @@
     <t>s</t>
   </si>
   <si>
-    <t>Lô 2-2024</t>
-  </si>
-  <si>
     <t>HUB_VACC_H1</t>
   </si>
   <si>
     <t>TG102LE-4G(0056)</t>
   </si>
   <si>
-    <t>Lô 5-2024</t>
-  </si>
-  <si>
-    <t>TG102LE-4G(0077)</t>
-  </si>
-  <si>
     <t>Lô 6-2024</t>
   </si>
   <si>
     <t>Lô 3-2025</t>
   </si>
   <si>
-    <t>ACT-01 RS232</t>
-  </si>
-  <si>
     <t>PHIẾU XÁC NHẬN TỒN SẢN XUẤT THÁNG 5</t>
   </si>
   <si>
@@ -258,7 +243,22 @@
     <t>Người Lập Phiếu</t>
   </si>
   <si>
-    <t>KT.Kho</t>
+    <t>Card Reader</t>
+  </si>
+  <si>
+    <t>ACT-01_RS232</t>
+  </si>
+  <si>
+    <t>Lô 4-2025</t>
+  </si>
+  <si>
+    <t>Lô 3-2024</t>
+  </si>
+  <si>
+    <t>Kế Toán Kho</t>
+  </si>
+  <si>
+    <t>daaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,9 +698,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +755,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,34 +857,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1509,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,77 +1522,77 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="76" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="75" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="91" t="s">
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
+      <c r="A4" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="93" t="str">
+      <c r="E5" s="94" t="str">
         <f>'Phieu Tinh CK'!E6:H6</f>
         <v>Hà Nội, Ngày 31 Tháng 05 Năm 2025</v>
       </c>
-      <c r="F5" s="93"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1599,7 +1602,7 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="71"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1607,7 +1610,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="71"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,20 +1638,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D11" s="16">
         <v>6000</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ref="E11:E15" si="0">C11*D11</f>
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,14 +1662,14 @@
         <v>56</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D12" s="16">
         <v>6000</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>55</v>
@@ -1677,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,20 +1701,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D14" s="16">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ref="E14" si="1">C14*D14</f>
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5">
         <v>200</v>
@@ -1732,32 +1735,32 @@
         <v>1200000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="47">
         <f>SUM(C11:C15)</f>
-        <v>700</v>
+        <v>378</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="73">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="72">
         <f>SUM(E11:E15)</f>
-        <v>4200000</v>
+        <v>1818000</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1766,7 +1769,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="74"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,33 +1777,33 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="74"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="39" t="s">
         <v>29</v>
       </c>
@@ -1810,7 +1813,7 @@
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="74"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,7 +1821,7 @@
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="74"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,7 +1829,7 @@
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="74"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,19 +1837,19 @@
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
-      <c r="E25" s="74"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="39" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +1859,7 @@
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,7 +1867,7 @@
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="68"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,7 +1875,7 @@
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="68"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1883,7 @@
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="75"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="42"/>
     </row>
   </sheetData>
@@ -1911,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,62 +1937,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="88" t="s">
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="85" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="C5" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
@@ -1998,12 +2001,12 @@
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
+      <c r="E6" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -2024,15 +2027,15 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25">
         <f>'Bang Tinh CK'!E17</f>
-        <v>4200000</v>
+        <v>1818000</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -2049,10 +2052,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="4">
         <f>COUNTIFS(C15:C20, "&gt;=2.5",C15:C20,"&lt;7")</f>
         <v>0</v>
@@ -2099,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="C15" s="32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="36">
         <v>100</v>
       </c>
       <c r="E15" s="19">
         <f>($C$9*D15)/$D$19</f>
-        <v>1166666.6666666667</v>
+        <v>505000</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -2116,7 +2119,7 @@
       </c>
       <c r="H15" s="16">
         <f>((E15-F15)+($F$21/10))-G15</f>
-        <v>1166666.6666666667</v>
+        <v>505000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,14 +2130,14 @@
         <v>34</v>
       </c>
       <c r="C16" s="32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="36">
         <v>80</v>
       </c>
       <c r="E16" s="19">
         <f>($C$9*D16)/$D$19</f>
-        <v>933333.33333333337</v>
+        <v>404000</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -2144,7 +2147,7 @@
       </c>
       <c r="H16" s="16">
         <f>((E16-F16)+($F$21/10))-G16</f>
-        <v>933333.33333333337</v>
+        <v>404000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2155,14 +2158,14 @@
         <v>57</v>
       </c>
       <c r="C17" s="32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="36">
         <v>100</v>
       </c>
       <c r="E17" s="19">
         <f>($C$9*D17)/$D$19</f>
-        <v>1166666.6666666667</v>
+        <v>505000</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2172,7 +2175,7 @@
       </c>
       <c r="H17" s="16">
         <f>((E17-F17)+($F$21/10))-G17</f>
-        <v>1166666.6666666667</v>
+        <v>505000</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,14 +2186,14 @@
         <v>58</v>
       </c>
       <c r="C18" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="36">
         <v>80</v>
       </c>
       <c r="E18" s="19">
         <f>($C$9*D18)/$D$19</f>
-        <v>933333.33333333337</v>
+        <v>404000</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2200,15 +2203,15 @@
       </c>
       <c r="H18" s="16">
         <f>((E18-F18)+($F$21/10))-G18</f>
-        <v>933333.33333333337</v>
+        <v>404000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="32">
         <f>SUM(D15:D18)</f>
         <v>360</v>
@@ -2241,15 +2244,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="34"/>
       <c r="E21" s="21">
         <f>SUM(E15:E18)</f>
-        <v>4200000</v>
+        <v>1818000</v>
       </c>
       <c r="F21" s="21">
         <f>SUM(F15:F20)</f>
@@ -2261,7 +2264,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H15:H20)</f>
-        <v>4200000</v>
+        <v>1818000</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2271,35 +2274,35 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="82"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="95" t="s">
+      <c r="G24" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="95"/>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="83"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="45"/>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="83"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -2318,24 +2321,24 @@
       <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="82"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="95" t="s">
+      <c r="G30" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="95"/>
+      <c r="H30" s="96"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2369,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,57 +2390,57 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="128" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="122"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="129"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="128" t="s">
+      <c r="H1" s="130"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="129"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="128" t="s">
+      <c r="H2" s="130"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="129"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="130"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2452,7 @@
       <c r="G5" s="55"/>
       <c r="H5" s="53"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>42</v>
       </c>
@@ -2461,7 +2464,7 @@
       <c r="G6" s="56"/>
       <c r="H6" s="53"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -2471,27 +2474,27 @@
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="136"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="131"/>
+      <c r="H8" s="137"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="58" t="s">
         <v>45</v>
       </c>
@@ -2504,357 +2507,388 @@
       <c r="F9" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
+      <c r="G9" s="138"/>
+      <c r="H9" s="139"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="78">
         <v>1</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="60">
+        <v>500</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0</v>
+      </c>
+      <c r="F10" s="60">
+        <f>D10-E10</f>
+        <v>500</v>
+      </c>
+      <c r="G10" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="61">
-        <v>1500</v>
-      </c>
-      <c r="D10" s="61">
-        <v>500</v>
-      </c>
-      <c r="E10" s="61">
-        <v>500</v>
-      </c>
-      <c r="F10" s="61">
-        <f>D10-E10</f>
+      <c r="H10" s="118"/>
+      <c r="I10" s="79"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="78">
+        <v>2</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="60">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="60">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="60">
+        <v>150</v>
+      </c>
+      <c r="F11" s="60">
+        <f>D11-E11</f>
+        <v>1050</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="112"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
+        <v>3</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="60">
+        <v>200</v>
+      </c>
+      <c r="D12" s="60">
+        <v>77</v>
+      </c>
+      <c r="E12" s="60">
         <v>0</v>
       </c>
-      <c r="G10" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="112"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="F12" s="61">
+        <f>D12-E12</f>
+        <v>77</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="112"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="78">
+        <v>4</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="60">
+        <v>200</v>
+      </c>
+      <c r="D13" s="60">
+        <v>178</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="F13" s="61">
+        <f t="shared" ref="F13" si="0">D13</f>
+        <v>178</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="112"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="78">
+        <v>5</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="60">
+        <v>300</v>
+      </c>
+      <c r="D14" s="60">
+        <v>200</v>
+      </c>
+      <c r="E14" s="60">
+        <v>200</v>
+      </c>
+      <c r="F14" s="61">
+        <f>D14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="112"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="78">
+        <v>6</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="60">
+        <v>300</v>
+      </c>
+      <c r="D15" s="60">
+        <v>52</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <f>D15-E15</f>
+        <v>52</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="112"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="78">
+        <v>7</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="60">
+        <v>200</v>
+      </c>
+      <c r="D16" s="60">
+        <v>22</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0</v>
+      </c>
+      <c r="F16" s="61">
+        <f>D16-E16</f>
+        <v>22</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="112"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="78">
+        <v>8</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="60">
+        <v>30</v>
+      </c>
+      <c r="D17" s="60">
         <v>2</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="61">
-        <v>200</v>
-      </c>
-      <c r="D11" s="61">
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <f>D17-E17</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="112"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="78">
+        <v>9</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="60">
+        <v>30</v>
+      </c>
+      <c r="D18" s="60">
+        <v>3</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0</v>
+      </c>
+      <c r="F18" s="61">
+        <v>3</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="112"/>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="78">
+        <v>10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60">
+        <v>28</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="112"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="115"/>
+      <c r="C20" s="63">
+        <f>SUM(C12:C19)</f>
+        <v>1260</v>
+      </c>
+      <c r="D20" s="63">
+        <f>SUM(D10:D19)</f>
+        <v>2234</v>
+      </c>
+      <c r="E20" s="63">
+        <f>SUM(E10:E19)</f>
+        <v>378</v>
+      </c>
+      <c r="F20" s="63">
+        <f>SUM(F10:F19)</f>
+        <v>1884</v>
+      </c>
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="61">
-        <v>0</v>
-      </c>
-      <c r="F11" s="62">
-        <f>D11-E11</f>
-        <v>77</v>
-      </c>
-      <c r="G11" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="112"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>3</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="61">
-        <v>200</v>
-      </c>
-      <c r="D12" s="61">
-        <v>178</v>
-      </c>
-      <c r="E12" s="61">
-        <v>0</v>
-      </c>
-      <c r="F12" s="62">
-        <f t="shared" ref="F12" si="0">D12</f>
-        <v>178</v>
-      </c>
-      <c r="G12" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="112"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
-        <v>4</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="61">
-        <v>300</v>
-      </c>
-      <c r="D13" s="61">
-        <v>200</v>
-      </c>
-      <c r="E13" s="61">
-        <v>200</v>
-      </c>
-      <c r="F13" s="62">
-        <f>D13-E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="112"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
-        <v>5</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="61">
-        <v>300</v>
-      </c>
-      <c r="D14" s="61">
-        <v>52</v>
-      </c>
-      <c r="E14" s="61">
-        <v>0</v>
-      </c>
-      <c r="F14" s="62">
-        <f>D14-E14</f>
-        <v>52</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="112"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="59">
-        <v>6</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="61">
-        <v>200</v>
-      </c>
-      <c r="D15" s="61">
-        <v>22</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0</v>
-      </c>
-      <c r="F15" s="62">
-        <f>D15-E15</f>
-        <v>22</v>
-      </c>
-      <c r="G15" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="112"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
-        <v>7</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="61">
-        <v>30</v>
-      </c>
-      <c r="D16" s="61">
-        <v>2</v>
-      </c>
-      <c r="E16" s="61">
-        <v>0</v>
-      </c>
-      <c r="F16" s="62">
-        <f>D16-E16</f>
-        <v>2</v>
-      </c>
-      <c r="G16" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="112"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="59">
-        <v>8</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="61">
-        <v>30</v>
-      </c>
-      <c r="D17" s="61">
-        <v>3</v>
-      </c>
-      <c r="E17" s="61">
-        <v>0</v>
-      </c>
-      <c r="F17" s="62">
-        <v>3</v>
-      </c>
-      <c r="G17" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="112"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
-        <v>9</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="64">
-        <f>SUM(C11:C18)</f>
-        <v>1260</v>
-      </c>
-      <c r="D19" s="64">
-        <f>SUM(D10:D18)</f>
-        <v>1034</v>
-      </c>
-      <c r="E19" s="64">
-        <f>SUM(E10:E18)</f>
-        <v>700</v>
-      </c>
-      <c r="F19" s="64">
-        <f>SUM(F10:F18)</f>
-        <v>334</v>
-      </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="82" t="s">
+      <c r="E22" s="121"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="82"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="83" t="s">
+      <c r="H22" s="83"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="83" t="s">
+      <c r="E23" s="84"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="83"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
-        <v>27</v>
-      </c>
+      <c r="H23" s="84"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="113"/>
       <c r="B26" s="113"/>
       <c r="C26" s="113"/>
-      <c r="D26" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="113"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="113" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="113"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="113"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="70"/>
+      <c r="H27" s="113"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G10:H10"/>
+  <mergeCells count="38">
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="G1:H1"/>
@@ -2865,32 +2899,33 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:H9"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
